--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -686,10 +710,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -733,28 +757,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3">
+      <c r="A21" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -779,28 +803,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="D23" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="3">
+      <c r="I23" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -917,10 +941,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -964,28 +988,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1010,28 +1034,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1293,10 +1317,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1340,28 +1364,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="3">
+      <c r="A42" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1386,28 +1410,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="3">
+      <c r="C44" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="3">
+      <c r="D44" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="3">
+      <c r="I44" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1553,10 +1577,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1600,28 +1624,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1646,28 +1670,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1900,10 +1924,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1947,28 +1971,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="A63" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1993,28 +2017,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="3">
+      <c r="I65" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2305,10 +2329,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2352,28 +2376,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2398,28 +2422,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2536,10 +2560,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2583,28 +2607,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2629,28 +2653,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2941,10 +2965,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2988,28 +3012,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
+      <c r="C99" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="3">
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3034,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3288,10 +3312,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K109" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3335,28 +3359,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="3">
+      <c r="A111" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3381,28 +3405,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="3">
+      <c r="I113" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3635,10 +3659,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="3" t="s">
+      <c r="K121" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3682,28 +3706,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3728,28 +3752,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3895,10 +3919,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="K130" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3942,28 +3966,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="3">
+      <c r="A132" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3988,28 +4012,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="3">
+      <c r="C134" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="3">
+      <c r="D134" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="3">
+      <c r="I134" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4155,10 +4179,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="J139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="K139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4202,28 +4226,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="A141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4248,28 +4272,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="3">
+      <c r="I143" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4415,10 +4439,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="J148" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="3" t="s">
+      <c r="K148" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4462,28 +4486,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="3">
+      <c r="A150" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4508,28 +4532,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="3">
+      <c r="C152" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="3">
+      <c r="D152" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="3">
+      <c r="I152" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4675,10 +4699,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="J157" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="3" t="s">
+      <c r="K157" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4722,28 +4746,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4768,28 +4792,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4964,10 +4988,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="J167" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K167" s="3" t="s">
+      <c r="K167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5011,28 +5035,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5057,28 +5081,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5253,10 +5277,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="J177" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K177" s="3" t="s">
+      <c r="K177" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5300,28 +5324,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5346,28 +5370,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5426,10 +5450,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="J183" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K183" s="3" t="s">
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5473,28 +5497,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
+      <c r="C185" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D185" t="s" s="3">
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5519,28 +5543,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5599,10 +5623,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="J189" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K189" s="3" t="s">
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5646,28 +5670,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
+      <c r="C191" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D191" t="s" s="3">
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5692,28 +5716,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5801,10 +5825,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J196" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="3" t="s">
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
